--- a/Mifos Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +260,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -302,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +343,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -713,10 +755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,12 +776,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,17 +822,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -815,8 +859,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -854,14 +899,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -897,14 +943,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.93</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -940,14 +987,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.93</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -983,14 +1031,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1026,14 +1075,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1069,14 +1119,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1112,10 +1163,11 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>233.7</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2593-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-EARLY-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -34,9 +29,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -126,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +139,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,45 +192,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,6 +218,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,26 +314,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,26 +538,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>42036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="10">
         <v>500</v>
       </c>
     </row>
@@ -640,111 +577,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>5000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>449.04</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>4550.96</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>1733.54</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>172.3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>50.96</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>121.34</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>41.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>0.42</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.42</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.42</v>
       </c>
     </row>
@@ -758,7 +695,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,399 +712,402 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="5">
+        <v>42036</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4">
+        <v>449.04</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4550.96</v>
+      </c>
+      <c r="H3" s="4">
+        <v>50.96</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>50.96</v>
+      </c>
+      <c r="L3" s="4">
+        <v>500</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>449.04</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42050</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>866.77</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3684.19</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="4">
+        <v>887.93</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>887.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>866.77</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2817.42</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>887.93</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>887.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B6" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="6">
-        <v>449.04</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4550.96</v>
-      </c>
-      <c r="H3" s="6">
-        <v>50.96</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>500</v>
-      </c>
-      <c r="L3" s="6">
-        <v>500</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>866.77</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3684.19</v>
-      </c>
-      <c r="H4" s="6">
-        <v>20.95</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="6">
-        <v>887.93</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>887.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>866.77</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2817.42</v>
-      </c>
-      <c r="H5" s="6">
-        <v>20.95</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="6">
-        <v>887.93</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>887.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="C6" s="5">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>841.34</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1976.08</v>
+      </c>
+      <c r="H6" s="4">
+        <v>46.38</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>868.23</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1107.8499999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
-        <v>42095</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>841.34</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1976.08</v>
-      </c>
-      <c r="H6" s="6">
-        <v>46.38</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="C8" s="5">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>876.43</v>
+      </c>
+      <c r="G8" s="4">
+        <v>231.42</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11.29</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>887.72</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
-        <v>42125</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>868.23</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1107.8499999999999</v>
-      </c>
-      <c r="H7" s="6">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7">
-        <v>42156</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>876.43</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="C9" s="5">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>231.42</v>
       </c>
-      <c r="H8" s="6">
-        <v>11.29</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7">
-        <v>42186</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
-        <v>231.42</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>233.7</v>
       </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
         <v>233.7</v>
       </c>
     </row>
@@ -1187,114 +1127,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42036</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4">
         <v>500</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>449.04</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>50.96</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
         <v>4550.96</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
         <v>42005</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
         <v>5000</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>5000</v>
       </c>
       <c r="K3"/>
